--- a/biology/Botanique/Cyclopteris/Cyclopteris.xlsx
+++ b/biology/Botanique/Cyclopteris/Cyclopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclopteris est un genre éteint de fougères à graines, un groupe de fougères préhistoriques de la famille éteinte des Cyclopteridaceae et de l'ordre éteint des Medullosales.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des espèces
-† Cyclopteris collumbiana Schimper, 1862
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>† Cyclopteris collumbiana Schimper, 1862
 † Cyclopteris cuneata Carruthers, 1872
 † Cyclopteris digitata Ad. Brongniart, 1830
 † Cyclopteris elegans Lesquereux, 1854 - fossile datant du Carbonifère et trouvé en Pennsylvanie, aux États-Unis
@@ -524,9 +541,43 @@
 † Cyclopteris fimbriata Lesquereux, 1854
 † Cyclopteris obtusa
 † Cyclopteris reniformis Brongniart, 1830
-† Cyclopteris rhomboidea
-Noms en homonymie
-Cyclopteris Schrad. ex Gray (nom rejeté), sunonyme de Cystopteris Bernh.</t>
+† Cyclopteris rhomboidea</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyclopteris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyclopteris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms en homonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cyclopteris Schrad. ex Gray (nom rejeté), sunonyme de Cystopteris Bernh.</t>
         </is>
       </c>
     </row>
